--- a/DesignerConfigs/Datas/beans.xlsx
+++ b/DesignerConfigs/Datas/beans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472D966-E95C-4C27-A89C-3737FD779829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F177DAF-2B92-415C-91D3-D3F20276162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="135" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="840" yWindow="435" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,22 @@
   </si>
   <si>
     <t>全名(包含模块和名字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,10 +262,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,7 +597,7 @@
     <col min="5" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,8 +605,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -600,17 +616,19 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
       <c r="E3" t="s">
         <v>1</v>
       </c>
@@ -627,10 +645,16 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -653,10 +677,16 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -672,11 +702,11 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>18</v>
       </c>
@@ -686,11 +716,11 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>19</v>
       </c>
@@ -700,11 +730,11 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>20</v>
       </c>
@@ -714,11 +744,11 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -734,11 +764,11 @@
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>22</v>
       </c>
@@ -748,11 +778,11 @@
       <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>23</v>
       </c>
@@ -762,14 +792,14 @@
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E2:J2"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/beans.xlsx
+++ b/DesignerConfigs/Datas/beans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F177DAF-2B92-415C-91D3-D3F20276162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75C3CEB-A5E2-48F8-A32E-57CB7935FC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="435" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title_rows=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +176,10 @@
   </si>
   <si>
     <t>路径检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_rows=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +587,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,22 +602,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -633,167 +633,167 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
       <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/beans.xlsx
+++ b/DesignerConfigs/Datas/beans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75C3CEB-A5E2-48F8-A32E-57CB7935FC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B320A2C-6494-43C6-B087-E4690F68D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="435" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,14 @@
   </si>
   <si>
     <t>title_rows=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,20 +592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="9" width="13.5" customWidth="1"/>
+    <col min="5" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +613,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>31</v>
@@ -626,8 +634,9 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="E3" t="s">
         <v>1</v>
@@ -642,19 +651,22 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -674,19 +686,22 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -699,56 +714,44 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -761,45 +764,36 @@
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/beans.xlsx
+++ b/DesignerConfigs/Datas/beans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B320A2C-6494-43C6-B087-E4690F68D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4300EBF9-562A-4CBF-884C-E5DA8159D507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>索引字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,20 +596,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="10" width="13.5" customWidth="1"/>
+    <col min="3" max="5" width="15" customWidth="1"/>
+    <col min="6" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>31</v>
@@ -624,10 +628,12 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -635,165 +641,170 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="F2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/beans.xlsx
+++ b/DesignerConfigs/Datas/beans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4300EBF9-562A-4CBF-884C-E5DA8159D507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB2FE5C-715F-4448-B8B5-2601F20E85A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -191,7 +191,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attrs</t>
+    <t>tags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/DesignerConfigs/Datas/beans.xlsx
+++ b/DesignerConfigs/Datas/beans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB2FE5C-715F-4448-B8B5-2601F20E85A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407750B0-EC33-4583-B4BC-9FDEF72E3030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28530" yWindow="1350" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>引用检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +188,10 @@
   </si>
   <si>
     <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -659,13 +659,13 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -697,16 +697,16 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
       </c>
       <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
         <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>3</v>

--- a/DesignerConfigs/Datas/beans.xlsx
+++ b/DesignerConfigs/Datas/beans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407750B0-EC33-4583-B4BC-9FDEF72E3030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD3F889-2466-49FD-B4B9-A1191D0894D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28530" yWindow="1350" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="2700" yWindow="1350" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orientation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,9 +611,10 @@
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="5" width="15" customWidth="1"/>
     <col min="6" max="11" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>31</v>
@@ -643,8 +648,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="F3" t="s">
         <v>1</v>
@@ -676,8 +682,11 @@
       <c r="O3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -712,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -729,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
         <v>17</v>
       </c>
@@ -740,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -751,7 +760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>19</v>
       </c>
@@ -762,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -779,7 +788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -790,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>22</v>
       </c>
@@ -804,7 +813,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/beans.xlsx
+++ b/DesignerConfigs/Datas/beans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD3F889-2466-49FD-B4B9-A1191D0894D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA5316-581E-414E-BC6A-C7F1AD587BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1350" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +192,10 @@
   </si>
   <si>
     <t>orientation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fields&amp;multi_rows=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +603,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="F2" sqref="F2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,25 +619,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -656,66 +656,66 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
       <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
         <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
       </c>
       <c r="N4" t="s">
         <v>3</v>
@@ -723,16 +723,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
         <v>4</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
         <v>6</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
         <v>7</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
         <v>5</v>
@@ -773,16 +773,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
         <v>4</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
         <v>6</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
         <v>7</v>

--- a/DesignerConfigs/Datas/beans.xlsx
+++ b/DesignerConfigs/Datas/beans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA5316-581E-414E-BC6A-C7F1AD587BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0860B4A1-B774-4F40-971D-FEF91ABF8E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="30750" yWindow="2580" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_multi_rows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否多行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,39 +151,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title_rows=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orientation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -600,32 +564,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:P2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="5" width="15" customWidth="1"/>
-    <col min="6" max="11" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="9.625" customWidth="1"/>
+    <col min="6" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -634,23 +597,17 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="F3" t="s">
         <v>1</v>
@@ -659,161 +616,128 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="N5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="N6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="I11" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/beans.xlsx
+++ b/DesignerConfigs/Datas/beans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0860B4A1-B774-4F40-971D-FEF91ABF8E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5647AC-E5B2-4982-8310-C933550EE549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="2580" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="31395" yWindow="2550" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fields&amp;multi_rows=1</t>
+    <t>*fields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +567,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/DesignerConfigs/Datas/beans.xlsx
+++ b/DesignerConfigs/Datas/beans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5647AC-E5B2-4982-8310-C933550EE549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA918C91-3093-4164-95C8-63DF433BDD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="2550" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,141 +25,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最差品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是个测试excel结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TestExcelBean1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TestExcelBean2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是个测试excel结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分割符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TestExcelBean1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TestExcelBean2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_rows=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*fields</t>
+    <t>##field</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,11 +242,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,80 +578,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
@@ -659,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -667,7 +677,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
@@ -678,30 +688,30 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -709,7 +719,7 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -723,21 +733,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:J2"/>
+  <mergeCells count="1">
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
